--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value722.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value722.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.212354967530186</v>
+        <v>1.300186991691589</v>
       </c>
       <c r="B1">
-        <v>1.996236285571152</v>
+        <v>2.247406721115112</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.870746245448385</v>
+        <v>1.897592663764954</v>
       </c>
       <c r="E1">
-        <v>0.9997285107592534</v>
+        <v>0.8990330696105957</v>
       </c>
     </row>
   </sheetData>
